--- a/results/I3_N5_M3_T15_C150_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.0766027149054</v>
+        <v>342.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4244997055358226</v>
+        <v>0.8372574275573794</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4244997055358226</v>
+        <v>0.8372574275573794</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.4399999999983</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.8600000000001</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -758,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>7.091900992101005</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>10.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.622606469260926</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.77588400245558</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.61314143001296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -941,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.83692585281499</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1031,71 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.1750000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.13000000000017</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000000013</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000000024</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>145.3950000000002</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.475</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>167.3199999999999</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>168.77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>166.265</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>145.3950000000002</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.475</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3199999999999</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>168.77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>166.265</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>156.56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>155.9399999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>122.0650000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.7150000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>125.2100000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>122.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.47499999999995</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.31999999999989</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18.77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.265</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1786,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1797,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1819,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1885,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2091,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2102,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2113,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2124,56 +2224,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
